--- a/raw_data/eurostat/emp_countries.xlsx
+++ b/raw_data/eurostat/emp_countries.xlsx
@@ -5,26 +5,39 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aml/Documents/KU/Seminar 2/Eurostat data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aml/AutoEmp/raw_data/eurostat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539497A2-3367-B341-A342-28517A74D1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EFF3F12-3B85-FB4E-B1A7-31C58BD75120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Structure" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet 1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="79">
-  <si>
-    <t>Employment by sex, age and economic activity (1983-2008, NACE Rev. 1.1) (1 000) [lfsa_egana__custom_12160346]</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="103">
+  <si>
+    <t>Employment by sex, age and economic activity (1983-2008, NACE Rev. 1.1) (1 000) [lfsa_egana__custom_12172298]</t>
   </si>
   <si>
     <t>Open product page</t>
@@ -72,6 +85,9 @@
     <t>Age class</t>
   </si>
   <si>
+    <t>Time</t>
+  </si>
+  <si>
     <t>Sheet 1</t>
   </si>
   <si>
@@ -87,6 +103,9 @@
     <t>From 15 to 64 years</t>
   </si>
   <si>
+    <t>1999</t>
+  </si>
+  <si>
     <t>Structure</t>
   </si>
   <si>
@@ -195,25 +214,19 @@
     <t>Italy</t>
   </si>
   <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
     <t>Finland</t>
   </si>
   <si>
     <t>Sweden</t>
   </si>
   <si>
+    <t>Norway</t>
+  </si>
+  <si>
     <t>United Kingdom</t>
   </si>
   <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>1999</t>
-  </si>
-  <si>
-    <t>Data extracted on 15/07/2024 15:29:32 from [ESTAT]</t>
+    <t>Data extracted on 16/07/2024 14:06:42 from [ESTAT]</t>
   </si>
   <si>
     <t xml:space="preserve">Dataset: </t>
@@ -222,15 +235,9 @@
     <t xml:space="preserve">Last updated: </t>
   </si>
   <si>
-    <t>TIME</t>
-  </si>
-  <si>
     <t>NACE_R1 (Labels)</t>
   </si>
   <si>
-    <t>GEO (Labels)</t>
-  </si>
-  <si>
     <t>:</t>
   </si>
   <si>
@@ -259,17 +266,90 @@
   </si>
   <si>
     <t>low reliability</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>CK</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>GQ</t>
+  </si>
+  <si>
+    <t>GK</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>MQ</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>NRP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="#,##0.##########"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    <numFmt numFmtId="170" formatCode="0.0"/>
-  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -365,7 +445,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -385,12 +465,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -406,37 +480,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,7 +525,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>332430</xdr:colOff>
+      <xdr:colOff>527293</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -832,41 +892,42 @@
     <col min="4" max="4" width="17.83203125" customWidth="1"/>
     <col min="5" max="5" width="5" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="6.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
@@ -895,37 +956,43 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="7" t="s">
         <v>15</v>
       </c>
+      <c r="G15" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B16" s="13" t="s">
-        <v>16</v>
+      <c r="B16" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -955,23 +1022,23 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B2" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>23</v>
+      <c r="B2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>24</v>
+      <c r="B3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -979,15 +1046,15 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>18</v>
+      <c r="C5" s="9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -995,295 +1062,295 @@
         <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>20</v>
+      <c r="C7" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B9" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>27</v>
+      <c r="B9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B11" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>29</v>
+      <c r="B11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B13" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>31</v>
+      <c r="B13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B15" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>33</v>
+      <c r="B15" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>35</v>
+      <c r="B17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>37</v>
+      <c r="B19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>39</v>
+      <c r="B21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>41</v>
+      <c r="B23" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B25" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>43</v>
+      <c r="B25" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B27" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>45</v>
+      <c r="B27" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B29" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>47</v>
+      <c r="B29" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B31" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>49</v>
+      <c r="B31" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B33" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>52</v>
+      <c r="B33" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B35" s="9" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B35" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>54</v>
+      <c r="C35" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B37" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>56</v>
+      <c r="B37" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B39" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>58</v>
+      <c r="B39" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B41" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>60</v>
+      <c r="B41" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1299,14 +1366,14 @@
       <pane xSplit="1" ySplit="12" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F32" sqref="F32"/>
+      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
@@ -1362,906 +1429,936 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="H10" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="I10" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="J10" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="K10" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="L10" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="M10" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="N10" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="O10" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="P10" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q10" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="R10" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="S10" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="T10" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="U10" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="V10" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="W10" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="X10" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y10" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z10" s="22" t="s">
-        <v>62</v>
-      </c>
-    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="U12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="W12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="X12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z12" s="3" t="s">
-        <v>50</v>
+        <v>78</v>
+      </c>
+      <c r="C12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" t="s">
+        <v>84</v>
+      </c>
+      <c r="I12" t="s">
+        <v>85</v>
+      </c>
+      <c r="J12" t="s">
+        <v>86</v>
+      </c>
+      <c r="K12" t="s">
+        <v>87</v>
+      </c>
+      <c r="L12" t="s">
+        <v>88</v>
+      </c>
+      <c r="M12" t="s">
+        <v>89</v>
+      </c>
+      <c r="N12" t="s">
+        <v>90</v>
+      </c>
+      <c r="O12" t="s">
+        <v>91</v>
+      </c>
+      <c r="P12" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>93</v>
+      </c>
+      <c r="R12" t="s">
+        <v>94</v>
+      </c>
+      <c r="S12" t="s">
+        <v>95</v>
+      </c>
+      <c r="T12" t="s">
+        <v>96</v>
+      </c>
+      <c r="U12" t="s">
+        <v>97</v>
+      </c>
+      <c r="V12" t="s">
+        <v>98</v>
+      </c>
+      <c r="W12" t="s">
+        <v>99</v>
+      </c>
+      <c r="X12" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="14">
+        <v>54</v>
+      </c>
+      <c r="B13" s="16">
         <v>2692.3</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="16">
         <v>85.9</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="16">
         <v>82.9</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="14">
+      <c r="E13" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="16">
         <v>1665.7</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="16">
         <v>723.9</v>
       </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="14">
+      <c r="H13" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" s="16">
         <v>510.6</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="16">
         <v>18.600000000000001</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K13" s="16">
         <v>190.7</v>
       </c>
-      <c r="L13" s="14">
+      <c r="L13" s="16">
         <v>1872.7</v>
       </c>
-      <c r="M13" s="14">
+      <c r="M13" s="16">
         <v>941.7</v>
       </c>
-      <c r="N13" s="14">
+      <c r="N13" s="16">
         <v>377.4</v>
       </c>
-      <c r="O13" s="14">
+      <c r="O13" s="16">
         <v>64.3</v>
       </c>
-      <c r="P13" s="14">
+      <c r="P13" s="16">
         <v>176.7</v>
       </c>
-      <c r="Q13" s="14">
+      <c r="Q13" s="16">
         <v>85.9</v>
       </c>
-      <c r="R13" s="14">
+      <c r="R13" s="16">
         <v>237.5</v>
       </c>
-      <c r="S13" s="14">
+      <c r="S13" s="16">
         <v>155.1</v>
       </c>
-      <c r="T13" s="14">
+      <c r="T13" s="16">
         <v>775.8</v>
       </c>
-      <c r="U13" s="18">
+      <c r="U13" s="16">
         <v>188</v>
       </c>
-      <c r="V13" s="14">
+      <c r="V13" s="16">
         <v>471.5</v>
       </c>
-      <c r="W13" s="18">
+      <c r="W13" s="16">
         <v>111</v>
       </c>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="14">
+      <c r="X13" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y13" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z13" s="16">
         <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="15">
+        <v>55</v>
+      </c>
+      <c r="B14" s="17">
         <v>35742.400000000001</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="17">
         <v>987.6</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="17">
         <v>980.1</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="17">
         <v>7.5</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="17">
         <v>24299.599999999999</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="17">
         <v>12136.6</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="17">
         <v>173.2</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="17">
         <v>8523.7999999999993</v>
       </c>
-      <c r="J14" s="15">
+      <c r="J14" s="17">
         <v>313.7</v>
       </c>
-      <c r="K14" s="19">
+      <c r="K14" s="17">
         <v>3126</v>
       </c>
-      <c r="L14" s="15">
+      <c r="L14" s="17">
         <v>22618.1</v>
       </c>
-      <c r="M14" s="19">
+      <c r="M14" s="17">
         <v>12163</v>
       </c>
-      <c r="N14" s="15">
+      <c r="N14" s="17">
         <v>5087.8999999999996</v>
       </c>
-      <c r="O14" s="15">
+      <c r="O14" s="17">
         <v>1143.9000000000001</v>
       </c>
-      <c r="P14" s="15">
+      <c r="P14" s="17">
         <v>1962.8</v>
       </c>
-      <c r="Q14" s="15">
+      <c r="Q14" s="17">
         <v>1293.0999999999999</v>
       </c>
-      <c r="R14" s="15">
+      <c r="R14" s="17">
         <v>2675.2</v>
       </c>
-      <c r="S14" s="15">
+      <c r="S14" s="17">
         <v>2989.7</v>
       </c>
-      <c r="T14" s="15">
+      <c r="T14" s="17">
         <v>7465.5</v>
       </c>
-      <c r="U14" s="15">
+      <c r="U14" s="17">
         <v>1937.9</v>
       </c>
-      <c r="V14" s="15">
+      <c r="V14" s="17">
         <v>3525.4</v>
       </c>
-      <c r="W14" s="15">
+      <c r="W14" s="17">
         <v>1834.5</v>
       </c>
-      <c r="X14" s="15">
+      <c r="X14" s="17">
         <v>132.1</v>
       </c>
-      <c r="Y14" s="15">
+      <c r="Y14" s="17">
         <v>35.5</v>
       </c>
-      <c r="Z14" s="8"/>
+      <c r="Z14" s="17" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="23">
+        <v>56</v>
+      </c>
+      <c r="B15" s="16">
         <v>14517.4</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="16">
         <v>1027.5</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="16">
         <v>971.3</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="16">
         <v>56.2</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="16">
         <v>9994.1</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="16">
         <v>4478.2</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="16">
         <v>67.8</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I15" s="16">
         <v>2775.7</v>
       </c>
-      <c r="J15" s="23">
+      <c r="J15" s="16">
         <v>95.8</v>
       </c>
-      <c r="K15" s="23">
+      <c r="K15" s="16">
         <v>1538.9</v>
       </c>
-      <c r="L15" s="23">
+      <c r="L15" s="16">
         <v>9011.7000000000007</v>
       </c>
-      <c r="M15" s="23">
+      <c r="M15" s="16">
         <v>5515.9</v>
       </c>
-      <c r="N15" s="23">
+      <c r="N15" s="16">
         <v>2356.9</v>
       </c>
-      <c r="O15" s="23">
+      <c r="O15" s="16">
         <v>918</v>
       </c>
-      <c r="P15" s="23">
+      <c r="P15" s="16">
         <v>853.2</v>
       </c>
-      <c r="Q15" s="23">
+      <c r="Q15" s="16">
         <v>385</v>
       </c>
-      <c r="R15" s="23">
+      <c r="R15" s="16">
         <v>1002.9</v>
       </c>
-      <c r="S15" s="23">
+      <c r="S15" s="16">
         <v>930</v>
       </c>
-      <c r="T15" s="23">
+      <c r="T15" s="16">
         <v>2565.8000000000002</v>
       </c>
-      <c r="U15" s="23">
+      <c r="U15" s="16">
         <v>843.7</v>
       </c>
-      <c r="V15" s="23">
+      <c r="V15" s="16">
         <v>760.2</v>
       </c>
-      <c r="W15" s="23">
+      <c r="W15" s="16">
         <v>544.20000000000005</v>
       </c>
-      <c r="X15" s="23">
+      <c r="X15" s="16">
         <v>415.9</v>
       </c>
-      <c r="Y15" s="23"/>
-      <c r="Z15" s="23"/>
+      <c r="Y15" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z15" s="16" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="24">
+        <v>57</v>
+      </c>
+      <c r="B16" s="17">
         <v>22414.2</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="17">
         <v>925.8</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="17">
         <v>896.6</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="17">
         <v>29.2</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="17">
         <v>13864.5</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G16" s="17">
         <v>5908.4</v>
       </c>
-      <c r="H16" s="24">
+      <c r="H16" s="17">
         <v>46.8</v>
       </c>
-      <c r="I16" s="24">
+      <c r="I16" s="17">
         <v>4233.3</v>
       </c>
-      <c r="J16" s="24">
+      <c r="J16" s="17">
         <v>186.4</v>
       </c>
-      <c r="K16" s="24">
+      <c r="K16" s="17">
         <v>1441.9</v>
       </c>
-      <c r="L16" s="24">
+      <c r="L16" s="17">
         <v>15573.4</v>
       </c>
-      <c r="M16" s="24">
+      <c r="M16" s="17">
         <v>7956.1</v>
       </c>
-      <c r="N16" s="24">
+      <c r="N16" s="17">
         <v>2985.9</v>
       </c>
-      <c r="O16" s="24">
+      <c r="O16" s="17">
         <v>747</v>
       </c>
-      <c r="P16" s="24">
+      <c r="P16" s="17">
         <v>1446.8</v>
       </c>
-      <c r="Q16" s="24">
+      <c r="Q16" s="17">
         <v>715.5</v>
       </c>
-      <c r="R16" s="24">
+      <c r="R16" s="17">
         <v>2060.8000000000002</v>
       </c>
-      <c r="S16" s="24">
+      <c r="S16" s="17">
         <v>2049</v>
       </c>
-      <c r="T16" s="24">
+      <c r="T16" s="17">
         <v>5568.4</v>
       </c>
-      <c r="U16" s="24">
+      <c r="U16" s="17">
         <v>1719.2</v>
       </c>
-      <c r="V16" s="24">
+      <c r="V16" s="17">
         <v>2366.6999999999998</v>
       </c>
-      <c r="W16" s="24">
+      <c r="W16" s="17">
         <v>927.5</v>
       </c>
-      <c r="X16" s="24">
+      <c r="X16" s="17">
         <v>536.1</v>
       </c>
-      <c r="Y16" s="24">
+      <c r="Y16" s="17">
         <v>18.899999999999999</v>
       </c>
-      <c r="Z16" s="24"/>
+      <c r="Z16" s="17" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="23">
+        <v>58</v>
+      </c>
+      <c r="B17" s="16">
         <v>20291.8</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="16">
         <v>1053.9000000000001</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="16">
         <v>1008.8</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="16">
         <v>45.1</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="16">
         <v>13629.4</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="16">
         <v>6616.5</v>
       </c>
-      <c r="H17" s="23">
+      <c r="H17" s="16">
         <v>69.5</v>
       </c>
-      <c r="I17" s="23">
+      <c r="I17" s="16">
         <v>4826.6000000000004</v>
       </c>
-      <c r="J17" s="23">
+      <c r="J17" s="16">
         <v>170</v>
       </c>
-      <c r="K17" s="23">
+      <c r="K17" s="16">
         <v>1550.4</v>
       </c>
-      <c r="L17" s="23">
+      <c r="L17" s="16">
         <v>12621.3</v>
       </c>
-      <c r="M17" s="23">
+      <c r="M17" s="16">
         <v>7012.9</v>
       </c>
-      <c r="N17" s="23">
+      <c r="N17" s="16">
         <v>3181.4</v>
       </c>
-      <c r="O17" s="23">
+      <c r="O17" s="16">
         <v>724.5</v>
       </c>
-      <c r="P17" s="23">
+      <c r="P17" s="16">
         <v>1110.2</v>
       </c>
-      <c r="Q17" s="23">
+      <c r="Q17" s="16">
         <v>652.9</v>
       </c>
-      <c r="R17" s="23">
+      <c r="R17" s="16">
         <v>1343.8</v>
       </c>
-      <c r="S17" s="23">
+      <c r="S17" s="16">
         <v>1801.3</v>
       </c>
-      <c r="T17" s="23">
+      <c r="T17" s="16">
         <v>3807.2</v>
       </c>
-      <c r="U17" s="23">
+      <c r="U17" s="16">
         <v>1454.9</v>
       </c>
-      <c r="V17" s="23">
+      <c r="V17" s="16">
         <v>1279.4000000000001</v>
       </c>
-      <c r="W17" s="23">
+      <c r="W17" s="16">
         <v>860.9</v>
       </c>
-      <c r="X17" s="23">
+      <c r="X17" s="16">
         <v>199.9</v>
       </c>
-      <c r="Y17" s="23">
+      <c r="Y17" s="16">
         <v>12.1</v>
       </c>
-      <c r="Z17" s="23"/>
+      <c r="Z17" s="16" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="24">
-        <v>7551.6</v>
-      </c>
-      <c r="C18" s="24">
-        <v>226</v>
-      </c>
-      <c r="D18" s="24">
-        <v>223.2</v>
-      </c>
-      <c r="E18" s="24">
-        <v>2.8</v>
-      </c>
-      <c r="F18" s="24">
-        <v>4564.3999999999996</v>
-      </c>
-      <c r="G18" s="24">
-        <v>1604.9</v>
-      </c>
-      <c r="H18" s="24">
-        <v>10.9</v>
-      </c>
-      <c r="I18" s="24">
-        <v>1094.8</v>
-      </c>
-      <c r="J18" s="24">
-        <v>38.6</v>
-      </c>
-      <c r="K18" s="24">
-        <v>460.6</v>
-      </c>
-      <c r="L18" s="24">
-        <v>5342.2</v>
-      </c>
-      <c r="M18" s="24">
-        <v>2959.5</v>
-      </c>
-      <c r="N18" s="24">
-        <v>1134.0999999999999</v>
-      </c>
-      <c r="O18" s="24">
-        <v>253.5</v>
-      </c>
-      <c r="P18" s="24">
-        <v>439.1</v>
-      </c>
-      <c r="Q18" s="24">
-        <v>273.60000000000002</v>
-      </c>
-      <c r="R18" s="24">
-        <v>859.2</v>
-      </c>
-      <c r="S18" s="24">
-        <v>540.79999999999995</v>
-      </c>
-      <c r="T18" s="24">
-        <v>1841.9</v>
-      </c>
-      <c r="U18" s="24">
-        <v>494.5</v>
-      </c>
-      <c r="V18" s="24">
-        <v>1005</v>
-      </c>
-      <c r="W18" s="24">
-        <v>316.60000000000002</v>
-      </c>
-      <c r="X18" s="24">
-        <v>22.3</v>
-      </c>
-      <c r="Y18" s="24">
-        <v>3.5</v>
-      </c>
-      <c r="Z18" s="24">
-        <v>378.5</v>
+        <v>59</v>
+      </c>
+      <c r="B18" s="17">
+        <v>2318</v>
+      </c>
+      <c r="C18" s="17">
+        <v>142.1</v>
+      </c>
+      <c r="D18" s="17">
+        <v>140.19999999999999</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="17">
+        <v>1439.1</v>
+      </c>
+      <c r="G18" s="17">
+        <v>643.20000000000005</v>
+      </c>
+      <c r="H18" s="17">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I18" s="17">
+        <v>469.1</v>
+      </c>
+      <c r="J18" s="17">
+        <v>20.9</v>
+      </c>
+      <c r="K18" s="17">
+        <v>148.30000000000001</v>
+      </c>
+      <c r="L18" s="17">
+        <v>1525.8</v>
+      </c>
+      <c r="M18" s="17">
+        <v>795.8</v>
+      </c>
+      <c r="N18" s="17">
+        <v>287.39999999999998</v>
+      </c>
+      <c r="O18" s="17">
+        <v>78</v>
+      </c>
+      <c r="P18" s="17">
+        <v>169.2</v>
+      </c>
+      <c r="Q18" s="17">
+        <v>46.1</v>
+      </c>
+      <c r="R18" s="17">
+        <v>215.2</v>
+      </c>
+      <c r="S18" s="17">
+        <v>117.6</v>
+      </c>
+      <c r="T18" s="17">
+        <v>612.29999999999995</v>
+      </c>
+      <c r="U18" s="17">
+        <v>153.30000000000001</v>
+      </c>
+      <c r="V18" s="17">
+        <v>326.39999999999998</v>
+      </c>
+      <c r="W18" s="17">
+        <v>127.3</v>
+      </c>
+      <c r="X18" s="17">
+        <v>5</v>
+      </c>
+      <c r="Y18" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z18" s="17">
+        <v>6.9</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="23">
-        <v>2318</v>
-      </c>
-      <c r="C19" s="23">
-        <v>142.1</v>
-      </c>
-      <c r="D19" s="23">
-        <v>140.19999999999999</v>
-      </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23">
-        <v>1439.1</v>
-      </c>
-      <c r="G19" s="23">
-        <v>643.20000000000005</v>
-      </c>
-      <c r="H19" s="23">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="I19" s="23">
-        <v>469.1</v>
-      </c>
-      <c r="J19" s="23">
-        <v>20.9</v>
-      </c>
-      <c r="K19" s="23">
-        <v>148.30000000000001</v>
-      </c>
-      <c r="L19" s="23">
-        <v>1525.8</v>
-      </c>
-      <c r="M19" s="23">
-        <v>795.8</v>
-      </c>
-      <c r="N19" s="23">
-        <v>287.39999999999998</v>
-      </c>
-      <c r="O19" s="23">
-        <v>78</v>
-      </c>
-      <c r="P19" s="23">
-        <v>169.2</v>
-      </c>
-      <c r="Q19" s="23">
-        <v>46.1</v>
-      </c>
-      <c r="R19" s="23">
-        <v>215.2</v>
-      </c>
-      <c r="S19" s="23">
-        <v>117.6</v>
-      </c>
-      <c r="T19" s="23">
-        <v>612.29999999999995</v>
-      </c>
-      <c r="U19" s="23">
-        <v>153.30000000000001</v>
-      </c>
-      <c r="V19" s="23">
-        <v>326.39999999999998</v>
-      </c>
-      <c r="W19" s="23">
-        <v>127.3</v>
-      </c>
-      <c r="X19" s="23">
-        <v>5</v>
-      </c>
-      <c r="Y19" s="23"/>
-      <c r="Z19" s="23">
-        <v>6.9</v>
+        <v>60</v>
+      </c>
+      <c r="B19" s="16">
+        <v>3997.6</v>
+      </c>
+      <c r="C19" s="16">
+        <v>97.3</v>
+      </c>
+      <c r="D19" s="16">
+        <v>95.9</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="16">
+        <v>2402.4</v>
+      </c>
+      <c r="G19" s="16">
+        <v>1008.7</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="I19" s="16">
+        <v>752.1</v>
+      </c>
+      <c r="J19" s="16">
+        <v>28.7</v>
+      </c>
+      <c r="K19" s="16">
+        <v>219.1</v>
+      </c>
+      <c r="L19" s="16">
+        <v>2888.9</v>
+      </c>
+      <c r="M19" s="16">
+        <v>1393.7</v>
+      </c>
+      <c r="N19" s="16">
+        <v>509.1</v>
+      </c>
+      <c r="O19" s="16">
+        <v>110.3</v>
+      </c>
+      <c r="P19" s="16">
+        <v>264.7</v>
+      </c>
+      <c r="Q19" s="16">
+        <v>85.2</v>
+      </c>
+      <c r="R19" s="16">
+        <v>424.4</v>
+      </c>
+      <c r="S19" s="16">
+        <v>200.6</v>
+      </c>
+      <c r="T19" s="16">
+        <v>1294.5</v>
+      </c>
+      <c r="U19" s="16">
+        <v>311.60000000000002</v>
+      </c>
+      <c r="V19" s="16">
+        <v>784.5</v>
+      </c>
+      <c r="W19" s="16">
+        <v>197</v>
+      </c>
+      <c r="X19" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y19" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z19" s="16" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="24">
-        <v>3997.6</v>
-      </c>
-      <c r="C20" s="24">
-        <v>97.3</v>
-      </c>
-      <c r="D20" s="24">
-        <v>95.9</v>
-      </c>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24">
-        <v>2402.4</v>
-      </c>
-      <c r="G20" s="24">
-        <v>1008.7</v>
-      </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24">
-        <v>752.1</v>
-      </c>
-      <c r="J20" s="24">
-        <v>28.7</v>
-      </c>
-      <c r="K20" s="24">
-        <v>219.1</v>
-      </c>
-      <c r="L20" s="24">
-        <v>2888.9</v>
-      </c>
-      <c r="M20" s="24">
-        <v>1393.7</v>
-      </c>
-      <c r="N20" s="24">
-        <v>509.1</v>
-      </c>
-      <c r="O20" s="24">
-        <v>110.3</v>
-      </c>
-      <c r="P20" s="24">
-        <v>264.7</v>
-      </c>
-      <c r="Q20" s="24">
-        <v>85.2</v>
-      </c>
-      <c r="R20" s="24">
-        <v>424.4</v>
-      </c>
-      <c r="S20" s="24">
-        <v>200.6</v>
-      </c>
-      <c r="T20" s="24">
-        <v>1294.5</v>
-      </c>
-      <c r="U20" s="24">
-        <v>311.60000000000002</v>
-      </c>
-      <c r="V20" s="24">
-        <v>784.5</v>
-      </c>
-      <c r="W20" s="24">
-        <v>197</v>
-      </c>
-      <c r="X20" s="24"/>
-      <c r="Y20" s="24"/>
-      <c r="Z20" s="24"/>
+        <v>61</v>
+      </c>
+      <c r="B20" s="17">
+        <v>2218.1999999999998</v>
+      </c>
+      <c r="C20" s="17">
+        <v>98.3</v>
+      </c>
+      <c r="D20" s="17">
+        <v>81.8</v>
+      </c>
+      <c r="E20" s="17">
+        <v>16.5</v>
+      </c>
+      <c r="F20" s="17">
+        <v>1322.3</v>
+      </c>
+      <c r="G20" s="17">
+        <v>496.8</v>
+      </c>
+      <c r="H20" s="17">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="I20" s="17">
+        <v>303.10000000000002</v>
+      </c>
+      <c r="J20" s="17">
+        <v>17.7</v>
+      </c>
+      <c r="K20" s="17">
+        <v>143.6</v>
+      </c>
+      <c r="L20" s="17">
+        <v>1622.1</v>
+      </c>
+      <c r="M20" s="17">
+        <v>825.5</v>
+      </c>
+      <c r="N20" s="17">
+        <v>335.1</v>
+      </c>
+      <c r="O20" s="17">
+        <v>72.2</v>
+      </c>
+      <c r="P20" s="17">
+        <v>171.5</v>
+      </c>
+      <c r="Q20" s="17">
+        <v>53.9</v>
+      </c>
+      <c r="R20" s="17">
+        <v>192.8</v>
+      </c>
+      <c r="S20" s="17">
+        <v>135.69999999999999</v>
+      </c>
+      <c r="T20" s="17">
+        <v>660.9</v>
+      </c>
+      <c r="U20" s="17">
+        <v>177.4</v>
+      </c>
+      <c r="V20" s="17">
+        <v>389.3</v>
+      </c>
+      <c r="W20" s="17">
+        <v>88.1</v>
+      </c>
+      <c r="X20" s="17">
+        <v>6.2</v>
+      </c>
+      <c r="Y20" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z20" s="17" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" s="23">
+        <v>62</v>
+      </c>
+      <c r="B21" s="16">
         <v>26409.5</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="16">
         <v>389</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="16">
         <v>374</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="16">
         <v>14.9</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="16">
         <v>17806</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G21" s="16">
         <v>6841.7</v>
       </c>
-      <c r="H21" s="23">
+      <c r="H21" s="16">
         <v>98.3</v>
       </c>
-      <c r="I21" s="23">
+      <c r="I21" s="16">
         <v>4719.8999999999996</v>
       </c>
-      <c r="J21" s="23">
+      <c r="J21" s="16">
         <v>181.3</v>
       </c>
-      <c r="K21" s="23">
+      <c r="K21" s="16">
         <v>1842.2</v>
       </c>
-      <c r="L21" s="23">
+      <c r="L21" s="16">
         <v>19102.400000000001</v>
       </c>
-      <c r="M21" s="23">
+      <c r="M21" s="16">
         <v>10964.3</v>
       </c>
-      <c r="N21" s="23">
+      <c r="N21" s="16">
         <v>4088.5</v>
       </c>
-      <c r="O21" s="23">
+      <c r="O21" s="16">
         <v>1118.0999999999999</v>
       </c>
-      <c r="P21" s="23">
+      <c r="P21" s="16">
         <v>1747.2</v>
       </c>
-      <c r="Q21" s="23">
+      <c r="Q21" s="16">
         <v>1141.9000000000001</v>
       </c>
-      <c r="R21" s="23">
+      <c r="R21" s="16">
         <v>2868.6</v>
       </c>
-      <c r="S21" s="23">
+      <c r="S21" s="16">
         <v>1582.9</v>
       </c>
-      <c r="T21" s="23">
+      <c r="T21" s="16">
         <v>6555.1</v>
       </c>
-      <c r="U21" s="23">
+      <c r="U21" s="16">
         <v>2119.9</v>
       </c>
-      <c r="V21" s="23">
+      <c r="V21" s="16">
         <v>2924.3</v>
       </c>
-      <c r="W21" s="23">
+      <c r="W21" s="16">
         <v>1366</v>
       </c>
-      <c r="X21" s="23">
+      <c r="X21" s="16">
         <v>128.19999999999999</v>
       </c>
-      <c r="Y21" s="23">
+      <c r="Y21" s="16">
         <v>16.8</v>
       </c>
-      <c r="Z21" s="23">
+      <c r="Z21" s="16">
         <v>76.5</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>73</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="H23" s="18"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B10:Z10"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>